--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Styles/StyleAlignment.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Styles/StyleAlignment.xlsx
@@ -461,10 +461,7 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <x:cols>
-    <x:col min="1" max="16384" width="9.850625" style="0" customWidth="1"/>
-  </x:cols>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="2" spans="1:2">
       <x:c r="B2" s="1" t="s">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Styles/StyleAlignment.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Styles/StyleAlignment.xlsx
@@ -89,7 +89,37 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="10">
+  <x:cellStyleXfs count="20">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -121,7 +151,7 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="10">
+  <x:cellXfs count="18">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -160,6 +190,38 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="1" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -474,42 +536,42 @@
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
-      <x:c r="B4" s="3" t="s">
+      <x:c r="B4" s="10" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2">
-      <x:c r="B5" s="0" t="s">
+      <x:c r="B5" s="11" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
-      <x:c r="B6" s="4" t="s">
+      <x:c r="B6" s="12" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2">
-      <x:c r="B7" s="5" t="s">
+      <x:c r="B7" s="13" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2">
-      <x:c r="B8" s="6" t="s">
+      <x:c r="B8" s="14" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2">
-      <x:c r="B9" s="7" t="s">
+      <x:c r="B9" s="15" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2">
-      <x:c r="B10" s="8" t="s">
+      <x:c r="B10" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2">
-      <x:c r="B11" s="9" t="s">
+      <x:c r="B11" s="17" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Styles/StyleAlignment.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Styles/StyleAlignment.xlsx
@@ -89,10 +89,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="20">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
+  <x:cellStyleXfs count="19">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -151,7 +148,7 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="18">
+  <x:cellXfs count="10">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -190,38 +187,6 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="1" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -536,42 +501,42 @@
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
-      <x:c r="B4" s="10" t="s">
+      <x:c r="B4" s="3" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2">
-      <x:c r="B5" s="11" t="s">
+      <x:c r="B5" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
-      <x:c r="B6" s="12" t="s">
+      <x:c r="B6" s="4" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2">
-      <x:c r="B7" s="13" t="s">
+      <x:c r="B7" s="5" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2">
-      <x:c r="B8" s="14" t="s">
+      <x:c r="B8" s="6" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2">
-      <x:c r="B9" s="15" t="s">
+      <x:c r="B9" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2">
-      <x:c r="B10" s="16" t="s">
+      <x:c r="B10" s="8" t="s">
         <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2">
-      <x:c r="B11" s="17" t="s">
+      <x:c r="B11" s="9" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Styles/StyleAlignment.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Styles/StyleAlignment.xlsx
@@ -544,14 +544,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Styles/StyleAlignment.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Styles/StyleAlignment.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <x:bookViews>
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Styles/StyleAlignment.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Styles/StyleAlignment.xlsx
@@ -53,7 +53,14 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="1">
+  <x:fonts count="2">
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Styles/StyleAlignment.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Styles/StyleAlignment.xlsx
@@ -493,7 +493,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:B11"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Styles/StyleAlignment.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Styles/StyleAlignment.xlsx
@@ -97,102 +97,102 @@
     </x:border>
   </x:borders>
   <x:cellStyleXfs count="19">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="10">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="2" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="1" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
